--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H2">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I2">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J2">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N2">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O2">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P2">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q2">
-        <v>0.002455364022222222</v>
+        <v>0.02803252185611112</v>
       </c>
       <c r="R2">
-        <v>0.0220982762</v>
+        <v>0.252292696705</v>
       </c>
       <c r="S2">
-        <v>0.0002011706132214364</v>
+        <v>0.001168948332288271</v>
       </c>
       <c r="T2">
-        <v>0.0002011706132214364</v>
+        <v>0.001168948332288271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H3">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I3">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J3">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.346137</v>
       </c>
       <c r="N3">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O3">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P3">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q3">
-        <v>0.5585604765033334</v>
+        <v>2.623205613106334</v>
       </c>
       <c r="R3">
-        <v>5.02704428853</v>
+        <v>23.60885051795701</v>
       </c>
       <c r="S3">
-        <v>0.0457634601478508</v>
+        <v>0.1093869414399976</v>
       </c>
       <c r="T3">
-        <v>0.04576346014785079</v>
+        <v>0.1093869414399976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H4">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I4">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J4">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N4">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O4">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P4">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q4">
-        <v>0.05747226284555557</v>
+        <v>0.333304690931889</v>
       </c>
       <c r="R4">
-        <v>0.51725036561</v>
+        <v>2.999742218387</v>
       </c>
       <c r="S4">
-        <v>0.004708764262742626</v>
+        <v>0.01389871252428017</v>
       </c>
       <c r="T4">
-        <v>0.004708764262742625</v>
+        <v>0.01389871252428017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I5">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J5">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N5">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O5">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P5">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q5">
-        <v>0.002863747957777778</v>
+        <v>0.006961758327222223</v>
       </c>
       <c r="R5">
-        <v>0.02577373162</v>
+        <v>0.06265582494500001</v>
       </c>
       <c r="S5">
-        <v>0.0002346299479685264</v>
+        <v>0.0002903033779183988</v>
       </c>
       <c r="T5">
-        <v>0.0002346299479685264</v>
+        <v>0.0002903033779183988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I6">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J6">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,13 +812,13 @@
         <v>2.346137</v>
       </c>
       <c r="N6">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O6">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P6">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q6">
         <v>0.6514620273836668</v>
@@ -827,10 +827,10 @@
         <v>5.863158246453001</v>
       </c>
       <c r="S6">
-        <v>0.05337498405659678</v>
+        <v>0.02716578459719491</v>
       </c>
       <c r="T6">
-        <v>0.05337498405659678</v>
+        <v>0.02716578459719491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I7">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J7">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N7">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O7">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P7">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q7">
-        <v>0.06703123197344446</v>
+        <v>0.08277481132477779</v>
       </c>
       <c r="R7">
-        <v>0.6032810877610001</v>
+        <v>0.744973301923</v>
       </c>
       <c r="S7">
-        <v>0.005491940876808102</v>
+        <v>0.003451686514336263</v>
       </c>
       <c r="T7">
-        <v>0.005491940876808102</v>
+        <v>0.003451686514336262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H8">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I8">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J8">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N8">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O8">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P8">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q8">
-        <v>0.007396767357777778</v>
+        <v>0.06614621880611113</v>
       </c>
       <c r="R8">
-        <v>0.06657090622</v>
+        <v>0.5953159692550001</v>
       </c>
       <c r="S8">
-        <v>0.0006060250992330406</v>
+        <v>0.00275827885045321</v>
       </c>
       <c r="T8">
-        <v>0.0006060250992330406</v>
+        <v>0.002758278850453209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H9">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I9">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J9">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.346137</v>
       </c>
       <c r="N9">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O9">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P9">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q9">
-        <v>1.682659622993667</v>
+        <v>6.189779619136335</v>
       </c>
       <c r="R9">
-        <v>15.143936606943</v>
+        <v>55.70801657222701</v>
       </c>
       <c r="S9">
-        <v>0.137862111335421</v>
+        <v>0.2581120813946318</v>
       </c>
       <c r="T9">
-        <v>0.137862111335421</v>
+        <v>0.2581120813946317</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H10">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I10">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J10">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N10">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O10">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P10">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q10">
-        <v>0.1731347995434445</v>
+        <v>0.7864738366618891</v>
       </c>
       <c r="R10">
-        <v>1.558213195891</v>
+        <v>7.078264529957001</v>
       </c>
       <c r="S10">
-        <v>0.01418512020168916</v>
+        <v>0.03279573933708909</v>
       </c>
       <c r="T10">
-        <v>0.01418512020168916</v>
+        <v>0.03279573933708908</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H11">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I11">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J11">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N11">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O11">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P11">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q11">
-        <v>0.007660431162222222</v>
+        <v>0.04082112773277778</v>
       </c>
       <c r="R11">
-        <v>0.06894388046000001</v>
+        <v>0.367390149595</v>
       </c>
       <c r="S11">
-        <v>0.0006276273581015161</v>
+        <v>0.001702229625657263</v>
       </c>
       <c r="T11">
-        <v>0.0006276273581015161</v>
+        <v>0.001702229625657263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H12">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I12">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J12">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,25 +1184,25 @@
         <v>2.346137</v>
       </c>
       <c r="N12">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O12">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P12">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q12">
-        <v>1.742639397444334</v>
+        <v>3.819927866340334</v>
       </c>
       <c r="R12">
-        <v>15.683754576999</v>
+        <v>34.379350797063</v>
       </c>
       <c r="S12">
-        <v>0.1427763187188963</v>
+        <v>0.1592899251712021</v>
       </c>
       <c r="T12">
-        <v>0.1427763187188963</v>
+        <v>0.1592899251712021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H13">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I13">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J13">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N13">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O13">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P13">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q13">
-        <v>0.1793063306625556</v>
+        <v>0.4853603051592223</v>
       </c>
       <c r="R13">
-        <v>1.613756975963</v>
+        <v>4.368242746433</v>
       </c>
       <c r="S13">
-        <v>0.01469076037907643</v>
+        <v>0.02023938917044361</v>
       </c>
       <c r="T13">
-        <v>0.01469076037907643</v>
+        <v>0.02023938917044361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H14">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I14">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J14">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N14">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O14">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P14">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q14">
-        <v>0.01083242058888889</v>
+        <v>0.04314481994277778</v>
       </c>
       <c r="R14">
-        <v>0.09749178529999998</v>
+        <v>0.388303379485</v>
       </c>
       <c r="S14">
-        <v>0.0008875118608959018</v>
+        <v>0.001799126941837848</v>
       </c>
       <c r="T14">
-        <v>0.0008875118608959018</v>
+        <v>0.001799126941837847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H15">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I15">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J15">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.346137</v>
       </c>
       <c r="N15">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O15">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P15">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q15">
-        <v>2.464221985438333</v>
+        <v>4.037372535774334</v>
       </c>
       <c r="R15">
-        <v>22.177997868945</v>
+        <v>36.33635282196901</v>
       </c>
       <c r="S15">
-        <v>0.20189635566775</v>
+        <v>0.1683573071571876</v>
       </c>
       <c r="T15">
-        <v>0.20189635566775</v>
+        <v>0.1683573071571876</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H16">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I16">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J16">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N16">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O16">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P16">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q16">
-        <v>0.2535525151072222</v>
+        <v>0.5129888402532222</v>
       </c>
       <c r="R16">
-        <v>2.281972635965</v>
+        <v>4.616899562279</v>
       </c>
       <c r="S16">
-        <v>0.02077383006605813</v>
+        <v>0.02139149136757999</v>
       </c>
       <c r="T16">
-        <v>0.02077383006605813</v>
+        <v>0.02139149136757999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H17">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I17">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J17">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N17">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O17">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P17">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q17">
-        <v>0.01724596631333333</v>
+        <v>0.04013650408833334</v>
       </c>
       <c r="R17">
-        <v>0.15521369682</v>
+        <v>0.361228536795</v>
       </c>
       <c r="S17">
-        <v>0.001412980555001187</v>
+        <v>0.001673681010890233</v>
       </c>
       <c r="T17">
-        <v>0.001412980555001187</v>
+        <v>0.001673681010890233</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H18">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I18">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J18">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,25 +1556,25 @@
         <v>2.346137</v>
       </c>
       <c r="N18">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O18">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P18">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q18">
-        <v>3.923212637537001</v>
+        <v>3.755862685327</v>
       </c>
       <c r="R18">
-        <v>35.308913737833</v>
+        <v>33.802764167943</v>
       </c>
       <c r="S18">
-        <v>0.3214330278314951</v>
+        <v>0.1566184250155014</v>
       </c>
       <c r="T18">
-        <v>0.3214330278314951</v>
+        <v>0.1566184250155014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H19">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I19">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J19">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N19">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O19">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P19">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q19">
-        <v>0.4036732232023335</v>
+        <v>0.4772201787236667</v>
       </c>
       <c r="R19">
-        <v>3.633059008821001</v>
+        <v>4.294981608513</v>
       </c>
       <c r="S19">
-        <v>0.03307338102119408</v>
+        <v>0.01989994817151029</v>
       </c>
       <c r="T19">
-        <v>0.03307338102119408</v>
+        <v>0.01989994817151029</v>
       </c>
     </row>
   </sheetData>
